--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\demo\New\DataDrivenTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D549C779-6EA7-4E4F-A795-909E70C6332C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46C014B-5C6C-48FC-AC79-065FB780DA32}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="1860" windowWidth="12630" windowHeight="8115" xr2:uid="{2B19D6E8-B19C-4CEC-9649-604D51BA84B0}"/>
+    <workbookView xWindow="7035" yWindow="2340" windowWidth="12615" windowHeight="8130" xr2:uid="{2B19D6E8-B19C-4CEC-9649-604D51BA84B0}"/>
   </bookViews>
   <sheets>
     <sheet name="account" sheetId="3" r:id="rId1"/>
@@ -33,10 +33,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>mngr213347</t>
+    <t>mngr220072</t>
   </si>
   <si>
-    <t>ytatArY</t>
+    <t>apyqahu</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
